--- a/test_data/testData.xlsx
+++ b/test_data/testData.xlsx
@@ -1118,7 +1118,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'head_img': 'https://xd-video-pc-img.oss-cn-beijing.aliyuncs.com/xdclass_pro/default/head_img/16.jpeg', 'name': 'luofang01', 'token': 'xdclasseyJhbGciOiJIUzI1NiJ9.eyJzdWIiOiJ4ZGNsYXNzIiwicm9sZXMiOiIxIiwiaW1nIjoiaHR0cHM6Ly94ZC12aWRlby1wYy1pbWcub3NzLWNuLWJlaWppbmcuYWxpeXVuY3MuY29tL3hkY2xhc3NfcHJvL2RlZmF1bHQvaGVhZF9pbWcvMTYuanBlZyIsImlkIjo2Nzg3NDE5LCJuYW1lIjoibHVvZmFuZzAxIiwiaWF0IjoxNjI0MzUzNTIyLCJleHAiOjE2MjQ5NTgzMjJ9.ClojZdNoWqeIM7oB65q2TcclDG4fpeWWBvnOdfg3Cpo'}, 'msg': None}</t>
+          <t>{'code': 0, 'data': {'head_img': 'https://xd-video-pc-img.oss-cn-beijing.aliyuncs.com/xdclass_pro/default/head_img/16.jpeg', 'name': 'luofang01', 'token': 'xdclasseyJhbGciOiJIUzI1NiJ9.eyJzdWIiOiJ4ZGNsYXNzIiwicm9sZXMiOiIxIiwiaW1nIjoiaHR0cHM6Ly94ZC12aWRlby1wYy1pbWcub3NzLWNuLWJlaWppbmcuYWxpeXVuY3MuY29tL3hkY2xhc3NfcHJvL2RlZmF1bHQvaGVhZF9pbWcvMTYuanBlZyIsImlkIjo2Nzg3NDE5LCJuYW1lIjoibHVvZmFuZzAxIiwiaWF0IjoxNjI0MzU1MTkyLCJleHAiOjE2MjQ5NTk5OTJ9.uLbYhm8w-uo6qSEnQnxI56koy-ewZJPKj7NQVkt4M-c'}, 'msg': None}</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/test_data/testData.xlsx
+++ b/test_data/testData.xlsx
@@ -1118,7 +1118,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'head_img': 'https://xd-video-pc-img.oss-cn-beijing.aliyuncs.com/xdclass_pro/default/head_img/16.jpeg', 'name': 'luofang01', 'token': 'xdclasseyJhbGciOiJIUzI1NiJ9.eyJzdWIiOiJ4ZGNsYXNzIiwicm9sZXMiOiIxIiwiaW1nIjoiaHR0cHM6Ly94ZC12aWRlby1wYy1pbWcub3NzLWNuLWJlaWppbmcuYWxpeXVuY3MuY29tL3hkY2xhc3NfcHJvL2RlZmF1bHQvaGVhZF9pbWcvMTYuanBlZyIsImlkIjo2Nzg3NDE5LCJuYW1lIjoibHVvZmFuZzAxIiwiaWF0IjoxNjI0MzU1MTkyLCJleHAiOjE2MjQ5NTk5OTJ9.uLbYhm8w-uo6qSEnQnxI56koy-ewZJPKj7NQVkt4M-c'}, 'msg': None}</t>
+          <t>{'code': 0, 'data': {'head_img': 'https://xd-video-pc-img.oss-cn-beijing.aliyuncs.com/xdclass_pro/default/head_img/16.jpeg', 'name': 'luofang01', 'token': 'xdclasseyJhbGciOiJIUzI1NiJ9.eyJzdWIiOiJ4ZGNsYXNzIiwicm9sZXMiOiIxIiwiaW1nIjoiaHR0cHM6Ly94ZC12aWRlby1wYy1pbWcub3NzLWNuLWJlaWppbmcuYWxpeXVuY3MuY29tL3hkY2xhc3NfcHJvL2RlZmF1bHQvaGVhZF9pbWcvMTYuanBlZyIsImlkIjo2Nzg3NDE5LCJuYW1lIjoibHVvZmFuZzAxIiwiaWF0IjoxNjI0MzU3NjMxLCJleHAiOjE2MjQ5NjI0MzF9.CaNShXJKHW6l-omjSi6Cn1fqjTUxprtVSM3lAHA8iKY'}, 'msg': None}</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/test_data/testData.xlsx
+++ b/test_data/testData.xlsx
@@ -1118,7 +1118,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'head_img': 'https://xd-video-pc-img.oss-cn-beijing.aliyuncs.com/xdclass_pro/default/head_img/16.jpeg', 'name': 'luofang01', 'token': 'xdclasseyJhbGciOiJIUzI1NiJ9.eyJzdWIiOiJ4ZGNsYXNzIiwicm9sZXMiOiIxIiwiaW1nIjoiaHR0cHM6Ly94ZC12aWRlby1wYy1pbWcub3NzLWNuLWJlaWppbmcuYWxpeXVuY3MuY29tL3hkY2xhc3NfcHJvL2RlZmF1bHQvaGVhZF9pbWcvMTYuanBlZyIsImlkIjo2Nzg3NDE5LCJuYW1lIjoibHVvZmFuZzAxIiwiaWF0IjoxNjI0MzU3NjMxLCJleHAiOjE2MjQ5NjI0MzF9.CaNShXJKHW6l-omjSi6Cn1fqjTUxprtVSM3lAHA8iKY'}, 'msg': None}</t>
+          <t>{'code': 0, 'data': {'head_img': 'https://xd-video-pc-img.oss-cn-beijing.aliyuncs.com/xdclass_pro/default/head_img/16.jpeg', 'name': 'luofang01', 'token': 'xdclasseyJhbGciOiJIUzI1NiJ9.eyJzdWIiOiJ4ZGNsYXNzIiwicm9sZXMiOiIxIiwiaW1nIjoiaHR0cHM6Ly94ZC12aWRlby1wYy1pbWcub3NzLWNuLWJlaWppbmcuYWxpeXVuY3MuY29tL3hkY2xhc3NfcHJvL2RlZmF1bHQvaGVhZF9pbWcvMTYuanBlZyIsImlkIjo2Nzg3NDE5LCJuYW1lIjoibHVvZmFuZzAxIiwiaWF0IjoxNjI0NTMzMjcyLCJleHAiOjE2MjUxMzgwNzJ9.eLZ-rHROD-udDaTYXSiy6UFbCPgt30zcNO7nZ0Kp4ao'}, 'msg': None}</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/test_data/testData.xlsx
+++ b/test_data/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="12510" windowWidth="28800"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="11640" windowWidth="21000"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -36,6 +36,74 @@
     </font>
     <font>
       <name val="DengXian"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="DengXian"/>
       <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
@@ -44,7 +112,45 @@
     <font>
       <name val="DengXian"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -57,10 +163,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="10"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="DengXian"/>
@@ -69,113 +176,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -186,19 +186,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,25 +342,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,133 +366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,11 +382,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -395,7 +408,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -415,17 +443,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,183 +467,161 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="13" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="7" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="15" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="15" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="20" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="14" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,8 +1024,8 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="4"/>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'head_img': 'https://xd-video-pc-img.oss-cn-beijing.aliyuncs.com/xdclass_pro/default/head_img/16.jpeg', 'name': 'luofang01', 'token': 'xdclasseyJhbGciOiJIUzI1NiJ9.eyJzdWIiOiJ4ZGNsYXNzIiwicm9sZXMiOiIxIiwiaW1nIjoiaHR0cHM6Ly94ZC12aWRlby1wYy1pbWcub3NzLWNuLWJlaWppbmcuYWxpeXVuY3MuY29tL3hkY2xhc3NfcHJvL2RlZmF1bHQvaGVhZF9pbWcvMTYuanBlZyIsImlkIjo2Nzg3NDE5LCJuYW1lIjoibHVvZmFuZzAxIiwiaWF0IjoxNjI0NTMzMjcyLCJleHAiOjE2MjUxMzgwNzJ9.eLZ-rHROD-udDaTYXSiy6UFbCPgt30zcNO7nZ0Kp4ao'}, 'msg': None}</t>
+          <t>{'code': 0, 'data': {'head_img': 'https://xd-video-pc-img.oss-cn-beijing.aliyuncs.com/xdclass_pro/default/head_img/16.jpeg', 'name': 'luofang01', 'token': 'xdclasseyJhbGciOiJIUzI1NiJ9.eyJzdWIiOiJ4ZGNsYXNzIiwicm9sZXMiOiIxIiwiaW1nIjoiaHR0cHM6Ly94ZC12aWRlby1wYy1pbWcub3NzLWNuLWJlaWppbmcuYWxpeXVuY3MuY29tL3hkY2xhc3NfcHJvL2RlZmF1bHQvaGVhZF9pbWcvMTYuanBlZyIsImlkIjo2Nzg3NDE5LCJuYW1lIjoibHVvZmFuZzAxIiwiaWF0IjoxNjI0NTg1OTI1LCJleHAiOjE2MjUxOTA3MjV9.D_cgdv2HKYnNe94fuAZV5L7dy73Nf-_v-xxwIRLUSxY'}, 'msg': None}</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'phone': '${tel}', 'pwd': 'love9202112'}</t>
+          <t>{'phone': '{0}'.format(tel), 'pwd': 'love9202112'}</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'phone': '${tel}', 'pwd': 'love9202112'}</t>
+          <t>{'phone': '{0}'.format(tel), 'pwd': 'love9202112'}</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -1275,12 +1275,12 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="4" min="4" width="23.125"/>
+    <col customWidth="1" max="4" min="4" width="29.625"/>
     <col customWidth="1" max="6" min="6" width="13.375"/>
     <col customWidth="1" max="8" min="8" width="28.625"/>
   </cols>
@@ -1431,8 +1431,8 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="6"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'phone': '${tel}', 'pwd': 'love9202112'}</t>
+          <t>{'phone': '{0}'.format(tel), 'pwd': 'love9202112'}</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'phone': '${tel}', 'pwd': 'love9202112'}</t>
+          <t>{'phone':'{0}'.format(tel), 'pwd': 'love9202112'}</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'phone': '${tel}', 'pwd': 'love9202112'}</t>
+          <t>{'phone': '{0}'.format(tel), 'pwd': 'love9202112'}</t>
         </is>
       </c>
       <c r="G6" t="n">
